--- a/5.Other/CK/Chiết-Khấu-tháng-12-2024.xlsx
+++ b/5.Other/CK/Chiết-Khấu-tháng-12-2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7385EDCC-AC59-4BA6-A4E7-C1DBB71E8DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467451F-66DD-4EF5-8B5F-91987A71BFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bang Tinh CK" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
@@ -239,9 +239,6 @@
     <t>CARD READER</t>
   </si>
   <si>
-    <t>ACT-01 RS232</t>
-  </si>
-  <si>
     <t>Lô 3-2024</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>THÁNG 12 NĂM 2024</t>
+  </si>
+  <si>
+    <t>Lô 6-2024</t>
   </si>
 </sst>
 </file>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5">
         <v>151</v>
@@ -1694,14 +1694,14 @@
         <v>62</v>
       </c>
       <c r="C12" s="5">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D12" s="16">
         <v>6000</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>708000</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>61</v>
@@ -1712,39 +1712,41 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
-        <v>156</v>
+        <v>556</v>
       </c>
       <c r="D13" s="16">
         <v>6000</v>
       </c>
       <c r="E13" s="19">
         <f>C13*D13</f>
-        <v>936000</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>3336000</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D14" s="16">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ref="E14" si="1">C14*D14</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,17 +1757,17 @@
         <v>71</v>
       </c>
       <c r="C15" s="5">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D15" s="16">
         <v>3000</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>1800000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,7 +1777,7 @@
       <c r="B16" s="78"/>
       <c r="C16" s="47">
         <f>SUM(C11:C15)</f>
-        <v>725</v>
+        <v>1475</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
@@ -1790,7 +1792,7 @@
       <c r="D17" s="79"/>
       <c r="E17" s="73">
         <f>SUM(E11:E15)</f>
-        <v>3150000</v>
+        <v>7050000</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1950,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2026,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="105"/>
       <c r="E5" s="105"/>
@@ -2038,7 +2040,7 @@
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="104"/>
@@ -2063,7 +2065,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25">
         <f>'Bang Tinh CK'!E17</f>
-        <v>3150000</v>
+        <v>7050000</v>
       </c>
       <c r="D9" s="35"/>
     </row>
@@ -2145,7 +2147,7 @@
       </c>
       <c r="E15" s="19">
         <f>($C$9*D15)/$D$19</f>
-        <v>828947.36842105258</v>
+        <v>1855263.1578947369</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -2155,7 +2157,7 @@
       </c>
       <c r="H15" s="16">
         <f>((E15-F15)+($F$21/10))-G15</f>
-        <v>828947.36842105258</v>
+        <v>1855263.1578947369</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,14 +2168,14 @@
         <v>35</v>
       </c>
       <c r="C16" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="36">
         <v>80</v>
       </c>
       <c r="E16" s="19">
         <f>($C$9*D16)/$D$19</f>
-        <v>663157.89473684214</v>
+        <v>1484210.5263157894</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -2183,7 +2185,7 @@
       </c>
       <c r="H16" s="16">
         <f>((E16-F16)+($F$21/10))-G16</f>
-        <v>663157.89473684214</v>
+        <v>1484210.5263157894</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2203,7 @@
       </c>
       <c r="E17" s="19">
         <f>($C$9*D17)/$D$19</f>
-        <v>828947.36842105258</v>
+        <v>1855263.1578947369</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2211,7 +2213,7 @@
       </c>
       <c r="H17" s="16">
         <f>((E17-F17)+($F$21/10))-G17</f>
-        <v>828947.36842105258</v>
+        <v>1855263.1578947369</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2231,7 @@
       </c>
       <c r="E18" s="19">
         <f>($C$9*D18)/$D$19</f>
-        <v>828947.36842105258</v>
+        <v>1855263.1578947369</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2239,7 +2241,7 @@
       </c>
       <c r="H18" s="16">
         <f>((E18-F18)+($F$21/10))-G18</f>
-        <v>828947.36842105258</v>
+        <v>1855263.1578947369</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2288,7 +2290,7 @@
       <c r="D21" s="34"/>
       <c r="E21" s="21">
         <f>SUM(E15:E18)</f>
-        <v>3150000</v>
+        <v>7050000</v>
       </c>
       <c r="F21" s="21">
         <f>SUM(F15:F20)</f>
@@ -2300,7 +2302,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H15:H20)</f>
-        <v>3150000</v>
+        <v>7050000</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2414,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2440,7 @@
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
       <c r="D1" s="134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="135"/>
       <c r="F1" s="135"/>
@@ -2476,7 +2478,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -2609,7 +2611,7 @@
         <v>142</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="109"/>
       <c r="I11" s="110"/>
@@ -2628,14 +2630,14 @@
         <v>882</v>
       </c>
       <c r="E12" s="61">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F12" s="62">
         <f>D12-E12</f>
-        <v>582</v>
+        <v>282</v>
       </c>
       <c r="G12" s="108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="109"/>
       <c r="I12" s="110"/>
@@ -2645,22 +2647,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="61">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="61">
+        <v>1300</v>
+      </c>
+      <c r="E13" s="61">
+        <v>556</v>
+      </c>
+      <c r="F13" s="62">
+        <f>D13-E13</f>
+        <v>744</v>
+      </c>
+      <c r="G13" s="108" t="s">
         <v>76</v>
-      </c>
-      <c r="C13" s="61">
-        <v>156</v>
-      </c>
-      <c r="D13" s="61">
-        <v>156</v>
-      </c>
-      <c r="E13" s="61">
-        <v>156</v>
-      </c>
-      <c r="F13" s="62">
-        <v>0</v>
-      </c>
-      <c r="G13" s="108" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="109"/>
       <c r="I13" s="110"/>
@@ -2748,23 +2751,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="61">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D17" s="61">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E17" s="61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F17" s="62">
         <f>D17-E17</f>
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="G17" s="108" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H17" s="109"/>
       <c r="I17" s="110"/>
@@ -2774,19 +2777,20 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C18" s="61">
         <v>30</v>
       </c>
       <c r="D18" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="61">
         <v>0</v>
       </c>
       <c r="F18" s="62">
-        <v>3</v>
+        <f>D18-E18</f>
+        <v>2</v>
       </c>
       <c r="G18" s="108" t="s">
         <v>58</v>
@@ -2799,83 +2803,97 @@
         <v>10</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+        <v>67</v>
+      </c>
+      <c r="C19" s="61">
+        <v>30</v>
+      </c>
+      <c r="D19" s="61">
+        <v>3</v>
+      </c>
       <c r="E19" s="61">
-        <v>18</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="108"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="62">
+        <v>3</v>
+      </c>
+      <c r="G19" s="108" t="s">
+        <v>58</v>
+      </c>
       <c r="H19" s="109"/>
       <c r="I19" s="110"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="59">
+        <v>11</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61">
+        <v>118</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="64">
-        <f>SUM(C10:C19)</f>
-        <v>6114</v>
-      </c>
-      <c r="D20" s="64">
-        <f>SUM(D10:D19)</f>
-        <v>1588</v>
-      </c>
-      <c r="E20" s="64">
-        <f>SUM(E10:E19)</f>
-        <v>625</v>
-      </c>
-      <c r="F20" s="64">
-        <f>SUM(F10:F19)</f>
-        <v>981</v>
-      </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="64">
+        <f>SUM(C10:C20)</f>
+        <v>7558</v>
+      </c>
+      <c r="D21" s="64">
+        <f>SUM(D10:D20)</f>
+        <v>3032</v>
+      </c>
+      <c r="E21" s="64">
+        <f>SUM(E10:E20)</f>
+        <v>1475</v>
+      </c>
+      <c r="F21" s="64">
+        <f>SUM(F10:F20)</f>
+        <v>1675</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="120" t="s">
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="117" t="s">
+      <c r="E23" s="120"/>
+      <c r="F23" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117" t="s">
+      <c r="G23" s="117"/>
+      <c r="H23" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="117"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
@@ -2889,70 +2907,81 @@
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="65"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="111" t="s">
-        <v>28</v>
-      </c>
+      <c r="A27" s="111"/>
       <c r="B27" s="111"/>
       <c r="C27" s="111"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="69" t="s">
+      <c r="E28" s="67"/>
+      <c r="F28" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="111" t="s">
+      <c r="G28" s="69"/>
+      <c r="H28" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="111"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+      <c r="I28" s="111"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="70"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:G3"/>
     <mergeCell ref="H1:I1"/>
@@ -2963,31 +2992,32 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:I9"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
